--- a/PowerBoard/POWER_BOARD_BOM_JAN22.xlsx
+++ b/PowerBoard/POWER_BOARD_BOM_JAN22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The Bots\Electrical\PowerBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1677B-AFEB-4FE8-A62E-5401C4ACCF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D1362-E1C2-4AEA-AA6E-BFCAD2AD74C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="340">
   <si>
     <t>Reference</t>
   </si>
@@ -1101,6 +1101,30 @@
   </si>
   <si>
     <t>C1210C104KBRAC7800</t>
+  </si>
+  <si>
+    <t>request submitted</t>
+  </si>
+  <si>
+    <t>request approved</t>
+  </si>
+  <si>
+    <t>alternate request approved</t>
+  </si>
+  <si>
+    <t>already have on hand</t>
+  </si>
+  <si>
+    <t>D16,D17,D18</t>
+  </si>
+  <si>
+    <t>C150183</t>
+  </si>
+  <si>
+    <t>CUS08F30,H3F</t>
+  </si>
+  <si>
+    <t>bots:D_SOD-323_HandSoldering</t>
   </si>
 </sst>
 </file>
@@ -2021,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2044,11 +2068,12 @@
     <col min="18" max="18" width="20.88671875" customWidth="1"/>
     <col min="19" max="21" width="8.88671875" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" customWidth="1"/>
     <col min="28" max="28" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2141,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2182,7 @@
       </c>
       <c r="P2">
         <f>IF(W2="DIGIKEY",O2,0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q2">
         <f>IFN2*8</f>
@@ -2168,8 +2193,8 @@
         <v>20</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S65" si="2">IF((O2+N2)/8=M2,G2*O2,H2*O2)</f>
-        <v>29.42</v>
+        <f t="shared" ref="S2:S65" si="2">IF(O2&gt;10,I2*O2,H2*O2)</f>
+        <v>21.261000000000003</v>
       </c>
       <c r="T2">
         <f t="shared" ref="T2:T32" si="3">IF(ISBLANK(D2),"EMPTY",(I2*R2+IF(D2="yes",4.04,0)))</f>
@@ -2177,14 +2202,14 @@
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V33" si="4">IF(T2="EMPTY",S2,IF(J2="Bottom",S2,IF(U2="DIGIKEY",S2,IF(U2="JLC",T2,IF(T2&lt;S2+0.2,T2,S2)))))</f>
-        <v>25.301000000000002</v>
+        <v>21.261000000000003</v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:W33" si="5">IF(T2="EMPTY","DIGIKEY",IF(J2="Bottom","DIGIKEY",IF(U2="DIGIKEY",U2,IF(U2="JLC",U2,IF(T2&lt;S2+0.2,"JLC","DIGIKEY")))))</f>
-        <v>JLC</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>DIGIKEY</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2228,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="8">M3*8</f>
+        <f t="shared" ref="Q3:Q67" si="8">M3*8</f>
         <v>24</v>
       </c>
       <c r="R3">
@@ -2237,7 +2262,7 @@
       </c>
       <c r="S3">
         <f t="shared" si="2"/>
-        <v>10.14</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="T3">
         <f t="shared" si="3"/>
@@ -2252,7 +2277,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>288</v>
       </c>
@@ -2298,8 +2323,8 @@
         <v>12</v>
       </c>
       <c r="S4">
-        <f>IF((O4+N4)/8=M4,G4*O4,H4*O4)</f>
-        <v>70.08</v>
+        <f t="shared" si="2"/>
+        <v>60.24</v>
       </c>
       <c r="T4" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2308,14 +2333,17 @@
       <c r="U4"/>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>70.08</v>
+        <v>60.24</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2383,7 +2411,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2436,7 +2464,7 @@
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>4.8899999999999997</v>
+        <v>0.315</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
@@ -2451,7 +2479,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2479,51 +2507,48 @@
       <c r="I7" s="4">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
       <c r="L7" s="4">
         <v>2</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q7">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S7">
         <f t="shared" si="2"/>
-        <v>1.56</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="3"/>
-        <v>4.4359999999999999</v>
+        <v>4.8319999999999999</v>
       </c>
       <c r="U7"/>
       <c r="V7">
         <f t="shared" si="4"/>
-        <v>1.56</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2576,7 +2601,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="2"/>
-        <v>12.68</v>
+        <v>2.58</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
@@ -2591,7 +2616,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2644,7 +2669,7 @@
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
-        <v>3.96</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
@@ -2659,7 +2684,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2712,7 +2737,7 @@
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>0.94</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
@@ -2727,7 +2752,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2798,7 +2823,7 @@
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2866,7 +2891,7 @@
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -2919,7 +2944,7 @@
       </c>
       <c r="S13">
         <f t="shared" si="2"/>
-        <v>1.1600000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
@@ -2934,7 +2959,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2965,50 +2990,47 @@
       <c r="J14" t="s">
         <v>283</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
         <v>2</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P14">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q14">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>4.96</v>
+        <v>1.2048000000000001</v>
       </c>
       <c r="T14">
         <f t="shared" si="3"/>
-        <v>4.7930000000000001</v>
+        <v>5.5460000000000003</v>
       </c>
       <c r="V14">
         <f t="shared" si="4"/>
-        <v>4.96</v>
+        <v>1.2048000000000001</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3036,53 +3058,50 @@
       <c r="I15">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P15">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q15">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S15">
         <f t="shared" si="2"/>
-        <v>5.92</v>
+        <v>1.0496000000000001</v>
       </c>
       <c r="T15">
         <f t="shared" si="3"/>
-        <v>4.6959999999999997</v>
+        <v>5.3520000000000003</v>
       </c>
       <c r="U15" t="s">
         <v>287</v>
       </c>
       <c r="V15">
         <f t="shared" si="4"/>
-        <v>5.92</v>
+        <v>1.0496000000000001</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -3150,7 +3169,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3218,7 +3237,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3246,19 +3265,16 @@
       <c r="I18">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P18">
         <f t="shared" si="7"/>
@@ -3266,30 +3282,33 @@
       </c>
       <c r="Q18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.74</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>4.04</v>
+        <v>4.8730000000000002</v>
+      </c>
+      <c r="U18" t="s">
+        <v>321</v>
       </c>
       <c r="V18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.8730000000000002</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="5"/>
-        <v>DIGIKEY</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>JLC</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3342,7 +3361,7 @@
       </c>
       <c r="S19">
         <f t="shared" si="2"/>
-        <v>6.4799999999999995</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
@@ -3357,7 +3376,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -3425,7 +3444,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -3478,7 +3497,7 @@
       </c>
       <c r="S21">
         <f t="shared" si="2"/>
-        <v>4.0200000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="T21">
         <f t="shared" si="3"/>
@@ -3493,7 +3512,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3561,7 +3580,7 @@
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -3632,7 +3651,7 @@
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -3685,7 +3704,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>12.32</v>
+        <v>11.2</v>
       </c>
       <c r="T24">
         <f t="shared" si="3"/>
@@ -3700,7 +3719,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -3765,7 +3784,7 @@
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -3787,35 +3806,32 @@
       <c r="I26">
         <v>1.61</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.512</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="3"/>
@@ -3823,14 +3839,14 @@
       </c>
       <c r="V26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.512</v>
       </c>
       <c r="W26" t="str">
         <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -3852,35 +3868,32 @@
       <c r="I27">
         <v>0.31</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q27">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8479999999999999</v>
       </c>
       <c r="T27" t="str">
         <f t="shared" si="3"/>
@@ -3888,14 +3901,14 @@
       </c>
       <c r="V27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.8479999999999999</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -3957,7 +3970,7 @@
         <v>DIGIKEY</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -4010,7 +4023,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
@@ -4025,7 +4038,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -4078,7 +4091,7 @@
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>11.52</v>
+        <v>9.36</v>
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
@@ -4093,7 +4106,7 @@
         <v>JLC</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -4121,15 +4134,15 @@
       <c r="I31">
         <v>4.0393999999999997</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
       <c r="L31">
         <v>2</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
@@ -4141,11 +4154,11 @@
       </c>
       <c r="Q31">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S31">
         <f t="shared" si="2"/>
@@ -4153,7 +4166,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
-        <v>44.433999999999997</v>
+        <v>52.512799999999991</v>
       </c>
       <c r="U31" t="s">
         <v>287</v>
@@ -4166,8 +4179,14 @@
         <f t="shared" si="5"/>
         <v>DIGIKEY</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X31" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -4279,7 +4298,7 @@
       </c>
       <c r="S33">
         <f t="shared" si="2"/>
-        <v>6.08</v>
+        <v>5.2240000000000002</v>
       </c>
       <c r="T33" t="str">
         <f>IF(ISBLANK(D33),"EMPTY",(H33*R33+IF(D33="yes",4.04,0)))</f>
@@ -4287,7 +4306,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="4"/>
-        <v>6.08</v>
+        <v>5.2240000000000002</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="5"/>
@@ -4347,7 +4366,7 @@
       </c>
       <c r="S34">
         <f t="shared" si="2"/>
-        <v>1.1499999999999999</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="T34">
         <f t="shared" ref="T34:T65" si="10">IF(ISBLANK(D34),"EMPTY",(I34*R34+IF(D34="yes",4.04,0)))</f>
@@ -4486,7 +4505,7 @@
       </c>
       <c r="S36">
         <f t="shared" si="2"/>
-        <v>2.0699999999999998</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="T36">
         <f t="shared" si="10"/>
@@ -4619,7 +4638,7 @@
       </c>
       <c r="S38">
         <f t="shared" si="2"/>
-        <v>0.45999999999999996</v>
+        <v>0.02</v>
       </c>
       <c r="T38">
         <f t="shared" si="10"/>
@@ -4854,35 +4873,32 @@
       <c r="I42">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
       <c r="L42">
         <v>2</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P42">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q42">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S42">
         <f t="shared" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="T42" t="str">
         <f t="shared" si="10"/>
@@ -4890,7 +4906,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="11"/>
-        <v>0.22999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="12"/>
@@ -4950,7 +4966,7 @@
       </c>
       <c r="S43">
         <f t="shared" si="2"/>
-        <v>0.91999999999999993</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="T43">
         <f t="shared" si="10"/>
@@ -5018,7 +5034,7 @@
       </c>
       <c r="S44">
         <f t="shared" si="2"/>
-        <v>0.45999999999999996</v>
+        <v>1.4E-2</v>
       </c>
       <c r="T44">
         <f t="shared" si="10"/>
@@ -5086,7 +5102,7 @@
       </c>
       <c r="S45">
         <f t="shared" si="2"/>
-        <v>0.45999999999999996</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="T45">
         <f t="shared" si="10"/>
@@ -5222,7 +5238,7 @@
       </c>
       <c r="S47">
         <f t="shared" si="2"/>
-        <v>0.45999999999999996</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="T47">
         <f t="shared" si="10"/>
@@ -5293,7 +5309,7 @@
       </c>
       <c r="S48">
         <f t="shared" si="2"/>
-        <v>0.45999999999999996</v>
+        <v>0.02</v>
       </c>
       <c r="T48">
         <f t="shared" si="10"/>
@@ -5301,7 +5317,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="11"/>
-        <v>0.45999999999999996</v>
+        <v>0.02</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="12"/>
@@ -5442,7 +5458,7 @@
       </c>
       <c r="S50">
         <f t="shared" si="2"/>
-        <v>0.66</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="T50">
         <f t="shared" si="10"/>
@@ -5450,7 +5466,7 @@
       </c>
       <c r="V50">
         <f t="shared" si="11"/>
-        <v>0.66</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="12"/>
@@ -5592,7 +5608,7 @@
       </c>
       <c r="S52">
         <f t="shared" si="2"/>
-        <v>0.45999999999999996</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="T52">
         <f t="shared" si="10"/>
@@ -5668,7 +5684,7 @@
       </c>
       <c r="S53">
         <f t="shared" si="2"/>
-        <v>0.69</v>
+        <v>2.7E-2</v>
       </c>
       <c r="T53">
         <f t="shared" si="10"/>
@@ -5689,8 +5705,8 @@
         <v>52.52</v>
       </c>
       <c r="AB53" s="6">
-        <f>W69</f>
-        <v>124.17536000000004</v>
+        <f>W70</f>
+        <v>98.027520000000024</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -5723,13 +5739,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="N54">
+        <v>10</v>
+      </c>
       <c r="O54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <f t="shared" si="8"/>
@@ -5737,11 +5756,11 @@
       </c>
       <c r="R54">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <f t="shared" si="2"/>
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="T54" t="str">
         <f t="shared" si="10"/>
@@ -5749,12 +5768,15 @@
       </c>
       <c r="V54">
         <f t="shared" si="11"/>
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
+      <c r="X54" t="s">
+        <v>333</v>
+      </c>
       <c r="Z54" t="s">
         <v>274</v>
       </c>
@@ -5858,13 +5880,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="N56">
+        <v>10</v>
+      </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <f t="shared" si="8"/>
@@ -5872,11 +5897,11 @@
       </c>
       <c r="R56">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S56">
         <f t="shared" si="2"/>
-        <v>106.8</v>
+        <v>0</v>
       </c>
       <c r="T56" t="str">
         <f t="shared" si="10"/>
@@ -5884,12 +5909,15 @@
       </c>
       <c r="V56">
         <f t="shared" si="11"/>
-        <v>106.8</v>
+        <v>0</v>
       </c>
       <c r="W56" t="str">
         <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
+      <c r="X56" t="s">
+        <v>333</v>
+      </c>
       <c r="Z56" t="s">
         <v>329</v>
       </c>
@@ -6039,7 +6067,7 @@
       </c>
       <c r="AA58" s="3">
         <f>SUM(AA49:AA51)+AB53+SUM(AA54:AA57)</f>
-        <v>299.51536000000004</v>
+        <v>273.36752000000001</v>
       </c>
       <c r="AD58" s="3"/>
     </row>
@@ -6096,7 +6124,7 @@
       </c>
       <c r="S59">
         <f t="shared" si="2"/>
-        <v>4.4800000000000004</v>
+        <v>3.6480000000000001</v>
       </c>
       <c r="T59">
         <f t="shared" si="10"/>
@@ -6104,7 +6132,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="11"/>
-        <v>4.4800000000000004</v>
+        <v>3.6480000000000001</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="12"/>
@@ -6115,7 +6143,7 @@
       </c>
       <c r="AA59" s="3">
         <f>0.12*AA58</f>
-        <v>35.941843200000001</v>
+        <v>32.804102399999998</v>
       </c>
       <c r="AD59" s="3"/>
     </row>
@@ -6154,13 +6182,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="N60">
+        <v>10</v>
+      </c>
       <c r="O60">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P60">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q60">
         <f t="shared" si="8"/>
@@ -6168,24 +6199,27 @@
       </c>
       <c r="R60">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <f t="shared" si="2"/>
-        <v>119.52</v>
+        <v>0</v>
       </c>
       <c r="T60">
         <f t="shared" si="10"/>
-        <v>161.34</v>
+        <v>4.04</v>
       </c>
       <c r="V60">
         <f t="shared" si="11"/>
-        <v>119.52</v>
+        <v>0</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
+      <c r="X60" t="s">
+        <v>333</v>
+      </c>
       <c r="Z60" t="s">
         <v>279</v>
       </c>
@@ -6247,7 +6281,7 @@
       </c>
       <c r="S61">
         <f t="shared" si="2"/>
-        <v>20.32</v>
+        <v>18.48</v>
       </c>
       <c r="T61">
         <f t="shared" si="10"/>
@@ -6266,7 +6300,7 @@
       </c>
       <c r="AA61" s="3">
         <f>SUM(AA58:AA60)</f>
-        <v>352.95720320000004</v>
+        <v>323.67162239999999</v>
       </c>
       <c r="AD61" s="3"/>
     </row>
@@ -6337,6 +6371,9 @@
         <f t="shared" si="12"/>
         <v>DIGIKEY</v>
       </c>
+      <c r="X62" t="s">
+        <v>335</v>
+      </c>
       <c r="AA62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
@@ -6408,8 +6445,8 @@
         <v>JLC</v>
       </c>
       <c r="AA63" s="3">
-        <f>AA61+X69</f>
-        <v>880.82440320000001</v>
+        <f>AA61+X70</f>
+        <v>566.55952639999998</v>
       </c>
       <c r="AD63" s="3"/>
     </row>
@@ -6466,7 +6503,7 @@
       </c>
       <c r="S64">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>1.7887999999999999</v>
       </c>
       <c r="T64">
         <f t="shared" si="10"/>
@@ -6474,7 +6511,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="11"/>
-        <v>4.8</v>
+        <v>1.7887999999999999</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="12"/>
@@ -6485,7 +6522,7 @@
       </c>
       <c r="AA64" s="3">
         <f>AA63/10</f>
-        <v>88.082440320000003</v>
+        <v>56.655952639999995</v>
       </c>
       <c r="AD64" s="3"/>
     </row>
@@ -6542,7 +6579,7 @@
       </c>
       <c r="S65">
         <f t="shared" si="2"/>
-        <v>6.8</v>
+        <v>5.64</v>
       </c>
       <c r="T65">
         <f t="shared" si="10"/>
@@ -6592,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66" si="14">L66-K66</f>
+        <f t="shared" ref="M66:M67" si="14">L66-K66</f>
         <v>1</v>
       </c>
       <c r="O66">
@@ -6608,12 +6645,12 @@
         <v>8</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66" si="15">M66*10-N66</f>
+        <f t="shared" ref="R66:R67" si="15">M66*10-N66</f>
         <v>10</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66" si="16">IF((O66+N66)/8=M66,G66*O66,H66*O66)</f>
-        <v>6.88</v>
+        <f t="shared" ref="S66" si="16">IF(O66&gt;10,I66*O66,H66*O66)</f>
+        <v>5.72</v>
       </c>
       <c r="T66">
         <f t="shared" ref="T66" si="17">IF(ISBLANK(D66),"EMPTY",(I66*R66+IF(D66="yes",4.04,0)))</f>
@@ -6624,7 +6661,7 @@
       </c>
       <c r="V66">
         <f t="shared" ref="V66" si="18">IF(T66="EMPTY",S66,IF(J66="Bottom",S66,IF(U66="DIGIKEY",S66,IF(U66="JLC",T66,IF(T66&lt;S66+0.2,T66,S66)))))</f>
-        <v>6.88</v>
+        <v>5.72</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="12"/>
@@ -6635,67 +6672,138 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="W68">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" t="s">
+        <v>339</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>338</v>
+      </c>
+      <c r="F67" t="s">
+        <v>337</v>
+      </c>
+      <c r="G67" s="5">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H67">
+        <v>0.45</v>
+      </c>
+      <c r="I67">
+        <v>0.312</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67" si="19">IF(IF((M67*8-N67)*G67&lt;(M67*10-N67)*H67,M67*8,M67*10)-N67&lt;0,0,IF((M67*8-N67)*G67&lt;(M67*10-N67)*H67,M67*8,M67*10)-N67)</f>
+        <v>24</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67" si="20">IF(W67="DIGIKEY",O67,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67" si="21">M67*8</f>
+        <v>24</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67" si="22">M67*10-N67</f>
+        <v>30</v>
+      </c>
+      <c r="S67">
+        <f>IF(O67&gt;10,I67*O67,H67*O67)</f>
+        <v>7.4879999999999995</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67" si="23">IF(ISBLANK(D67),"EMPTY",(I67*R67+IF(D67="yes",4.04,0)))</f>
+        <v>13.399999999999999</v>
+      </c>
+      <c r="U67" t="s">
+        <v>287</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67" si="24">IF(T67="EMPTY",S67,IF(J67="Bottom",S67,IF(U67="DIGIKEY",S67,IF(U67="JLC",T67,IF(T67&lt;S67+0.2,T67,S67)))))</f>
+        <v>7.4879999999999995</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" ref="W67" si="25">IF(T67="EMPTY","DIGIKEY",IF(J67="Bottom","DIGIKEY",IF(U67="DIGIKEY",U67,IF(U67="JLC",U67,IF(T67&lt;S67+0.2,"JLC","DIGIKEY")))))</f>
+        <v>DIGIKEY</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W69">
         <f>COUNTIF(W2:W66,"JLC")</f>
         <v>31</v>
       </c>
-      <c r="X68">
+      <c r="X69">
         <f>SUMIF(W2:W66,"DIGIKEY",Q2:Q66)</f>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T69" t="s">
-        <v>267</v>
-      </c>
-      <c r="V69">
-        <f>SUM(V2:V66)</f>
-        <v>568.32199999999989</v>
-      </c>
-      <c r="W69" s="7">
-        <f>SUMIF(W2:W66,"JLC",V2:V66)*1.28</f>
-        <v>124.17536000000004</v>
-      </c>
-      <c r="X69">
-        <f>SUMIF(W2:W66,"DIGIKEY",V2:V66)*1.12</f>
-        <v>527.86720000000003</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="T70" t="s">
+        <v>267</v>
+      </c>
+      <c r="V70">
+        <f>SUM(V2:V66)</f>
+        <v>293.44819999999999</v>
+      </c>
+      <c r="W70" s="7">
+        <f>SUMIF(W2:W66,"JLC",V2:V66)*1.28</f>
+        <v>98.027520000000024</v>
+      </c>
+      <c r="X70">
+        <f>SUMIF(W2:W66,"DIGIKEY",V2:V66)*1.12</f>
+        <v>242.88790399999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T71" t="s">
         <v>268</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W71" t="s">
         <v>321</v>
       </c>
-      <c r="X70" t="s">
+      <c r="X71" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="W72" t="s">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W73" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V73">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V74">
         <f>V60+V56+V31++V4</f>
-        <v>346.15999999999997</v>
-      </c>
-      <c r="X73" t="s">
+        <v>110</v>
+      </c>
+      <c r="X74" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="X74">
-        <f>X68/8</f>
-        <v>33</v>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X75">
+        <f>X69/8</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="S2:T66">
+  <conditionalFormatting sqref="S2:T67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(T2-S2&lt;3,T2&gt;S2)</formula>
     </cfRule>

--- a/PowerBoard/POWER_BOARD_BOM_JAN22.xlsx
+++ b/PowerBoard/POWER_BOARD_BOM_JAN22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\Documents\University\GitHub\The Bots\Electrical\PowerBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D1362-E1C2-4AEA-AA6E-BFCAD2AD74C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C9251F-B0E3-4EEB-9CB0-85758B592E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POWER_BOARD" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="339">
   <si>
     <t>Reference</t>
   </si>
@@ -668,9 +668,6 @@
     <t>W25Q16JVSNIQ</t>
   </si>
   <si>
-    <t>W25Q128JVSIQ</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
@@ -902,9 +899,6 @@
     <t>LT3750AEMS#TRPBF</t>
   </si>
   <si>
-    <t>C97521</t>
-  </si>
-  <si>
     <t>C61643</t>
   </si>
   <si>
@@ -1125,6 +1119,9 @@
   </si>
   <si>
     <t>bots:D_SOD-323_HandSoldering</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1723,9 +1720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1763,7 +1760,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1869,7 +1866,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2011,7 +2008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2047,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2090,55 +2087,55 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q1" t="s">
         <v>320</v>
       </c>
-      <c r="I1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L1" t="s">
-        <v>202</v>
-      </c>
-      <c r="M1" t="s">
-        <v>257</v>
-      </c>
-      <c r="N1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P1" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>322</v>
-      </c>
       <c r="R1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" t="s">
         <v>251</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>284</v>
+      </c>
+      <c r="V1" t="s">
         <v>252</v>
-      </c>
-      <c r="U1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -2158,10 +2155,10 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H2">
         <v>1.4710000000000001</v>
@@ -2226,10 +2223,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H3">
         <v>0.33800000000000002</v>
@@ -2253,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q67" si="8">M3*8</f>
+        <f t="shared" ref="Q3:Q66" si="8">M3*8</f>
         <v>24</v>
       </c>
       <c r="R3">
@@ -2279,7 +2276,7 @@
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2291,7 +2288,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H4" s="4">
         <v>7.53</v>
@@ -2340,7 +2337,7 @@
         <v>DIGIKEY</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -2360,10 +2357,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H5">
         <v>3.6999999999999998E-2</v>
@@ -2428,10 +2425,10 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H6">
         <v>3.2599999999999997E-2</v>
@@ -2496,10 +2493,10 @@
         <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H7" s="4">
         <v>0.156</v>
@@ -2565,10 +2562,10 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H8">
         <v>0.317</v>
@@ -2633,10 +2630,10 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H9">
         <v>0.13200000000000001</v>
@@ -2701,10 +2698,10 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H10">
         <v>4.7E-2</v>
@@ -2769,10 +2766,10 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H11">
         <v>6.4000000000000001E-2</v>
@@ -2781,7 +2778,7 @@
         <v>1.03E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2837,10 +2834,10 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="5">
         <v>0.61</v>
@@ -2908,10 +2905,10 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H13">
         <v>5.8000000000000003E-2</v>
@@ -2976,7 +2973,7 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G14" s="5">
         <v>0.62</v>
@@ -2988,7 +2985,7 @@
         <v>7.5300000000000006E-2</v>
       </c>
       <c r="J14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -3047,10 +3044,10 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H15">
         <v>0.623</v>
@@ -3090,7 +3087,7 @@
         <v>5.3520000000000003</v>
       </c>
       <c r="U15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V15">
         <f t="shared" si="4"/>
@@ -3118,10 +3115,10 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H16">
         <v>0.53</v>
@@ -3186,7 +3183,7 @@
         <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G17" s="5">
         <v>0.39</v>
@@ -3254,10 +3251,10 @@
         <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H18">
         <v>0.47399999999999998</v>
@@ -3297,7 +3294,7 @@
         <v>4.8730000000000002</v>
       </c>
       <c r="U18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="V18">
         <f t="shared" si="4"/>
@@ -3325,7 +3322,7 @@
         <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G19" s="5">
         <v>0.39</v>
@@ -3393,7 +3390,7 @@
         <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G20" s="5">
         <v>0.39</v>
@@ -3461,7 +3458,7 @@
         <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G21" s="5">
         <v>0.39</v>
@@ -3529,7 +3526,7 @@
         <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H22">
         <v>0.436</v>
@@ -3538,7 +3535,7 @@
         <v>0.63</v>
       </c>
       <c r="J22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -3585,7 +3582,7 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -3594,10 +3591,10 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G23" s="5">
         <v>0.17</v>
@@ -3609,7 +3606,7 @@
         <v>0.1038</v>
       </c>
       <c r="J23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -3668,7 +3665,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G24" s="5">
         <v>1.54</v>
@@ -3733,7 +3730,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H25">
         <v>0.23200000000000001</v>
@@ -3798,7 +3795,7 @@
         <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H26">
         <v>1.3140000000000001</v>
@@ -3860,7 +3857,7 @@
         <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H27">
         <v>0.60599999999999998</v>
@@ -3919,10 +3916,10 @@
         <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H28">
         <v>0.30599999999999999</v>
@@ -3987,7 +3984,7 @@
         <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G29" s="5">
         <v>0.5</v>
@@ -4043,7 +4040,7 @@
         <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
         <v>97</v>
@@ -4052,13 +4049,13 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H30">
         <v>1.17</v>
@@ -4123,10 +4120,10 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H31">
         <v>6.22</v>
@@ -4169,7 +4166,7 @@
         <v>52.512799999999991</v>
       </c>
       <c r="U31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V31">
         <f t="shared" si="4"/>
@@ -4180,10 +4177,10 @@
         <v>DIGIKEY</v>
       </c>
       <c r="X31" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y31" t="s">
         <v>332</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
@@ -4200,16 +4197,16 @@
         <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H32">
         <v>0.65</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -4265,13 +4262,13 @@
         <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H33">
         <v>0.65300000000000002</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -4315,7 +4312,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
         <v>106</v>
@@ -4330,7 +4327,7 @@
         <v>108</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G34" s="5">
         <v>0.15</v>
@@ -4383,7 +4380,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s">
         <v>106</v>
@@ -4398,7 +4395,7 @@
         <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G35" s="5">
         <v>0.15</v>
@@ -4410,7 +4407,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -4469,7 +4466,7 @@
         <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G36" s="5">
         <v>0.15</v>
@@ -4531,10 +4528,10 @@
         <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G37" s="5">
         <v>0.15</v>
@@ -4602,7 +4599,7 @@
         <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G38" s="5">
         <v>0.15</v>
@@ -4667,7 +4664,7 @@
         <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G39" s="5">
         <v>0.15</v>
@@ -4732,7 +4729,7 @@
         <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G40" s="5">
         <v>0.15</v>
@@ -4794,13 +4791,13 @@
         <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H41">
         <v>0.70499999999999996</v>
@@ -4862,7 +4859,7 @@
         <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G42" s="5">
         <v>0.15</v>
@@ -4930,7 +4927,7 @@
         <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G43" s="5">
         <v>0.15</v>
@@ -4998,7 +4995,7 @@
         <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G44" s="5">
         <v>0.15</v>
@@ -5066,7 +5063,7 @@
         <v>137</v>
       </c>
       <c r="F45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G45" s="5">
         <v>0.15</v>
@@ -5108,9 +5105,8 @@
         <f t="shared" si="10"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="V45">
-        <f t="shared" si="11"/>
-        <v>1.7999999999999999E-2</v>
+      <c r="V45" t="s">
+        <v>338</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="12"/>
@@ -5134,7 +5130,7 @@
         <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G46" s="5">
         <v>0.15</v>
@@ -5202,7 +5198,7 @@
         <v>143</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G47" s="5">
         <v>0.15</v>
@@ -5270,7 +5266,7 @@
         <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G48" s="5">
         <v>0.15</v>
@@ -5282,7 +5278,7 @@
         <v>1E-3</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -5341,7 +5337,7 @@
         <v>149</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G49" s="5">
         <v>0.15</v>
@@ -5353,7 +5349,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="J49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -5395,7 +5391,7 @@
         <v>DIGIKEY</v>
       </c>
       <c r="Z49" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA49" s="3">
         <v>62.04</v>
@@ -5416,10 +5412,10 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G50" s="5">
         <v>0.15</v>
@@ -5431,7 +5427,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -5473,7 +5469,7 @@
         <v>DIGIKEY</v>
       </c>
       <c r="Z50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA50" s="3">
         <v>33.700000000000003</v>
@@ -5497,7 +5493,7 @@
         <v>154</v>
       </c>
       <c r="F51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G51" s="5">
         <v>0.15</v>
@@ -5548,7 +5544,7 @@
         <v>JLC</v>
       </c>
       <c r="Z51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AA51" s="3">
         <v>10.59</v>
@@ -5572,7 +5568,7 @@
         <v>156</v>
       </c>
       <c r="F52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G52" s="5">
         <v>0.15</v>
@@ -5623,7 +5619,7 @@
         <v>JLC</v>
       </c>
       <c r="Z52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AA52" s="3">
         <v>81.3</v>
@@ -5648,7 +5644,7 @@
         <v>159</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G53" s="5">
         <v>0.15</v>
@@ -5699,14 +5695,14 @@
         <v>JLC</v>
       </c>
       <c r="Z53" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA53" s="3">
         <v>52.52</v>
       </c>
       <c r="AB53" s="6">
         <f>W70</f>
-        <v>98.027520000000024</v>
+        <v>98.004480000000029</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -5724,13 +5720,13 @@
         <v>163</v>
       </c>
       <c r="G54" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H54">
         <v>4.0670000000000002</v>
       </c>
       <c r="J54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -5775,10 +5771,10 @@
         <v>DIGIKEY</v>
       </c>
       <c r="X54" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Z54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA54" s="3">
         <v>6.82</v>
@@ -5799,13 +5795,13 @@
         <v>167</v>
       </c>
       <c r="G55" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H55">
         <v>0.83</v>
       </c>
       <c r="J55" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -5847,7 +5843,7 @@
         <v>DIGIKEY</v>
       </c>
       <c r="Z55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AA55" s="3">
         <v>0.57999999999999996</v>
@@ -5916,10 +5912,10 @@
         <v>DIGIKEY</v>
       </c>
       <c r="X56" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Z56" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AA56" s="3">
         <v>0.65</v>
@@ -5943,7 +5939,7 @@
         <v>175</v>
       </c>
       <c r="F57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G57" s="5">
         <v>1.06</v>
@@ -5986,7 +5982,7 @@
         <v>13.010000000000002</v>
       </c>
       <c r="U57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="V57">
         <f t="shared" si="11"/>
@@ -5997,7 +5993,7 @@
         <v>JLC</v>
       </c>
       <c r="Z57" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AA57" s="3">
         <v>60.96</v>
@@ -6018,7 +6014,7 @@
         <v>177</v>
       </c>
       <c r="G58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H58">
         <v>2.34</v>
@@ -6063,11 +6059,11 @@
         <v>DIGIKEY</v>
       </c>
       <c r="Z58" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA58" s="3">
         <f>SUM(AA49:AA51)+AB53+SUM(AA54:AA57)</f>
-        <v>273.36752000000001</v>
+        <v>273.34448000000003</v>
       </c>
       <c r="AD58" s="3"/>
     </row>
@@ -6088,10 +6084,10 @@
         <v>180</v>
       </c>
       <c r="F59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H59">
         <v>0.45600000000000002</v>
@@ -6139,11 +6135,11 @@
         <v>DIGIKEY</v>
       </c>
       <c r="Z59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA59" s="3">
         <f>0.12*AA58</f>
-        <v>32.804102399999998</v>
+        <v>32.801337600000004</v>
       </c>
       <c r="AD59" s="3"/>
     </row>
@@ -6161,13 +6157,13 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H60">
         <v>13.505000000000001</v>
@@ -6218,10 +6214,10 @@
         <v>DIGIKEY</v>
       </c>
       <c r="X60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Z60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AA60" s="3">
         <v>17.5</v>
@@ -6242,13 +6238,10 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="G61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H61">
         <v>2.31</v>
@@ -6296,29 +6289,29 @@
         <v>JLC</v>
       </c>
       <c r="Z61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AA61" s="3">
         <f>SUM(AA58:AA60)</f>
-        <v>323.67162239999999</v>
+        <v>323.64581760000004</v>
       </c>
       <c r="AD61" s="3"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
         <v>188</v>
-      </c>
-      <c r="B62" t="s">
-        <v>189</v>
       </c>
       <c r="C62" t="s">
         <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G62" s="5">
         <v>4.82</v>
@@ -6372,32 +6365,32 @@
         <v>DIGIKEY</v>
       </c>
       <c r="X62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AA62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="s">
         <v>190</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>191</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
         <v>192</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>193</v>
-      </c>
       <c r="F63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G63" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H63">
         <v>4.03</v>
@@ -6446,31 +6439,31 @@
       </c>
       <c r="AA63" s="3">
         <f>AA61+X70</f>
-        <v>566.55952639999998</v>
+        <v>566.53372160000004</v>
       </c>
       <c r="AD63" s="3"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" t="s">
         <v>194</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>195</v>
       </c>
-      <c r="C64" t="s">
-        <v>196</v>
-      </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G64" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H64">
         <v>0.28699999999999998</v>
@@ -6518,35 +6511,35 @@
         <v>DIGIKEY</v>
       </c>
       <c r="Z64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AA64" s="3">
         <f>AA63/10</f>
-        <v>56.655952639999995</v>
+        <v>56.653372160000004</v>
       </c>
       <c r="AD64" s="3"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" t="s">
         <v>197</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>198</v>
       </c>
-      <c r="C65" t="s">
-        <v>199</v>
-      </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G65" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H65">
         <v>0.70499999999999996</v>
@@ -6586,7 +6579,7 @@
         <v>11.656000000000001</v>
       </c>
       <c r="U65" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="V65">
         <f t="shared" si="11"/>
@@ -6599,25 +6592,25 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" t="s">
         <v>200</v>
       </c>
-      <c r="B66" t="s">
-        <v>201</v>
-      </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G66" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H66">
         <v>0.71499999999999997</v>
@@ -6645,7 +6638,7 @@
         <v>8</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R67" si="15">M66*10-N66</f>
+        <f t="shared" ref="R66" si="15">M66*10-N66</f>
         <v>10</v>
       </c>
       <c r="S66">
@@ -6657,7 +6650,7 @@
         <v>6.319</v>
       </c>
       <c r="U66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V66">
         <f t="shared" ref="V66" si="18">IF(T66="EMPTY",S66,IF(J66="Bottom",S66,IF(U66="DIGIKEY",S66,IF(U66="JLC",T66,IF(T66&lt;S66+0.2,T66,S66)))))</f>
@@ -6674,22 +6667,22 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" t="s">
         <v>336</v>
       </c>
-      <c r="B67" t="s">
-        <v>338</v>
-      </c>
       <c r="C67" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F67" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G67" s="5">
         <v>6.1199999999999997E-2</v>
@@ -6732,7 +6725,7 @@
         <v>13.399999999999999</v>
       </c>
       <c r="U67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V67">
         <f t="shared" ref="V67" si="24">IF(T67="EMPTY",S67,IF(J67="Bottom",S67,IF(U67="DIGIKEY",S67,IF(U67="JLC",T67,IF(T67&lt;S67+0.2,T67,S67)))))</f>
@@ -6755,15 +6748,15 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="T70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V70">
         <f>SUM(V2:V66)</f>
-        <v>293.44819999999999</v>
+        <v>293.43020000000001</v>
       </c>
       <c r="W70" s="7">
         <f>SUMIF(W2:W66,"JLC",V2:V66)*1.28</f>
-        <v>98.027520000000024</v>
+        <v>98.004480000000029</v>
       </c>
       <c r="X70">
         <f>SUMIF(W2:W66,"DIGIKEY",V2:V66)*1.12</f>
@@ -6772,18 +6765,18 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="T71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W71" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="X71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
@@ -6792,7 +6785,7 @@
         <v>110</v>
       </c>
       <c r="X74" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
